--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -3,9 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Projects" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,16 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -395,1320 +415,1035 @@
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>ClientName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Start</v>
-      </c>
-      <c r="E1" t="str">
-        <v>End</v>
+        <v>ClientID</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>734</v>
+        <v>6</v>
       </c>
       <c r="B2" t="str">
-        <v>identifying a missing product  POC</v>
+        <v>General</v>
       </c>
       <c r="C2" t="str">
-        <v>מרב  מזון כל בע"מ</v>
-      </c>
-      <c r="D2" t="str">
-        <v>2025-05-25T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>482</v>
+        <v>8</v>
       </c>
       <c r="B3" t="str">
-        <v>Windows Client Solution</v>
+        <v>Interview</v>
       </c>
       <c r="C3" t="str">
-        <v>Akamai Technologies Israel</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2021-02-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>466</v>
+        <v>10</v>
       </c>
       <c r="B4" t="str">
-        <v>ADI-X FW &amp; Cloud support</v>
+        <v>Meeting</v>
       </c>
       <c r="C4" t="str">
-        <v>Amiad</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2020-10-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>325</v>
+        <v>15</v>
       </c>
       <c r="B5" t="str">
-        <v>HW CR</v>
+        <v>Pre-sale</v>
       </c>
       <c r="C5" t="str">
-        <v>Amiad</v>
-      </c>
-      <c r="D5" t="str">
-        <v>2018-07-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>672</v>
+        <v>150</v>
       </c>
       <c r="B6" t="str">
-        <v>Smart Valve Backend</v>
+        <v>SDK</v>
       </c>
       <c r="C6" t="str">
-        <v>Aquestia Ltd.</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2023-11-26T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>595</v>
+        <v>162</v>
       </c>
       <c r="B7" t="str">
-        <v>Smart Valve Joint HW</v>
+        <v>ERP</v>
       </c>
       <c r="C7" t="str">
-        <v>Aquestia Ltd.</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2022-09-13T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>643</v>
+        <v>321</v>
       </c>
       <c r="B8" t="str">
-        <v>Smart Valve Project Management and System</v>
+        <v>pregnancy</v>
       </c>
       <c r="C8" t="str">
-        <v>Aquestia Ltd.</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2023-06-15T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>721</v>
+        <v>325</v>
       </c>
       <c r="B9" t="str">
-        <v>Smart Valve support</v>
+        <v>HW CR</v>
       </c>
       <c r="C9" t="str">
-        <v>Aquestia Ltd.</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-01-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>712</v>
+        <v>389</v>
       </c>
       <c r="B10" t="str">
-        <v>Smart Valve System QA</v>
+        <v>Dosing pump</v>
       </c>
       <c r="C10" t="str">
-        <v>Aquestia Ltd.</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2024-10-09T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>697</v>
+        <v>424</v>
       </c>
       <c r="B11" t="str">
-        <v>Smart Valve System QA Plan</v>
+        <v>ReefBeat support</v>
       </c>
       <c r="C11" t="str">
-        <v>Aquestia Ltd.</v>
-      </c>
-      <c r="D11" t="str">
-        <v>2024-06-03T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>622</v>
+        <v>454</v>
       </c>
       <c r="B12" t="str">
-        <v>Smart Valve UI/UX Consulting</v>
+        <v>BIS 2.5</v>
       </c>
       <c r="C12" t="str">
-        <v>Aquestia Ltd.</v>
-      </c>
-      <c r="D12" t="str">
-        <v>2023-01-24T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>658</v>
+        <v>466</v>
       </c>
       <c r="B13" t="str">
-        <v>Backend Development</v>
+        <v>ADI-X FW &amp; Cloud support</v>
       </c>
       <c r="C13" t="str">
-        <v>Arad Technologies Ltd.</v>
-      </c>
-      <c r="D13" t="str">
-        <v>2023-08-13T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>730</v>
+        <v>482</v>
       </c>
       <c r="B14" t="str">
-        <v>Various Development Tasks</v>
+        <v>Windows Client Solution</v>
       </c>
       <c r="C14" t="str">
-        <v>BioXtreme Ltd.</v>
-      </c>
-      <c r="D14" t="str">
-        <v>2025-04-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>753</v>
+        <v>500</v>
       </c>
       <c r="B15" t="str">
-        <v>DOTSOIL - Bugs Resolving</v>
+        <v>Tools Development</v>
       </c>
       <c r="C15" t="str">
-        <v>Dots Ltd</v>
-      </c>
-      <c r="D15" t="str">
-        <v>2025-10-12T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>740</v>
+        <v>503</v>
       </c>
       <c r="B16" t="str">
-        <v>EM IoT Module</v>
+        <v>Linux R&amp;D Extension</v>
       </c>
       <c r="C16" t="str">
-        <v>Eitan Medical</v>
-      </c>
-      <c r="D16" t="str">
-        <v>2025-07-22T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>741</v>
+        <v>509</v>
       </c>
       <c r="B17" t="str">
-        <v>Mobile Team Leader</v>
+        <v>ReefMat</v>
       </c>
       <c r="C17" t="str">
-        <v>Eitan Medical</v>
-      </c>
-      <c r="D17" t="str">
-        <v>2025-07-28T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>706</v>
+        <v>518</v>
       </c>
       <c r="B18" t="str">
-        <v>Embedded Software Consulting</v>
+        <v>ליווי ילדים</v>
       </c>
       <c r="C18" t="str">
-        <v>Electrical Grid Monitoring Ltd.</v>
-      </c>
-      <c r="D18" t="str">
-        <v>2024-07-16T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>752</v>
+        <v>519</v>
       </c>
       <c r="B19" t="str">
-        <v>Edge Standalone Development Board</v>
+        <v>ReefRun</v>
       </c>
       <c r="C19" t="str">
-        <v>G2Tech</v>
-      </c>
-      <c r="D19" t="str">
-        <v>2025-09-29T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>665</v>
+        <v>529</v>
       </c>
       <c r="B20" t="str">
-        <v>Tester Tool PC Side</v>
+        <v>ReefWave</v>
       </c>
       <c r="C20" t="str">
-        <v>GE Medical Systems Israel Ltd.</v>
-      </c>
-      <c r="D20" t="str">
-        <v>2023-09-10T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>679</v>
+        <v>530</v>
       </c>
       <c r="B21" t="str">
-        <v>G2 Embedded Linux BSP</v>
+        <v>IoT Platform</v>
       </c>
       <c r="C21" t="str">
-        <v>GSI Technology Israel Ltd.</v>
-      </c>
-      <c r="D21" t="str">
-        <v>2024-03-17T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>699</v>
+        <v>534</v>
       </c>
       <c r="B22" t="str">
-        <v>PCI Host Linux Driver</v>
+        <v>Embedded RT Development</v>
       </c>
       <c r="C22" t="str">
-        <v>GSI Technology Israel Ltd.</v>
-      </c>
-      <c r="D22" t="str">
-        <v>2024-06-10T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>711</v>
+        <v>537</v>
       </c>
       <c r="B23" t="str">
-        <v>IGIN Support</v>
+        <v>mobile</v>
       </c>
       <c r="C23" t="str">
-        <v>IGIN Smart Hygiene Ltd.</v>
-      </c>
-      <c r="D23" t="str">
-        <v>2024-09-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="B24" t="str">
-        <v>Linux R&amp;D Extension</v>
+        <v>Porting ReefLight to ESP-IDF</v>
       </c>
       <c r="C24" t="str">
-        <v>ISSI</v>
-      </c>
-      <c r="D24" t="str">
-        <v>2021-04-04T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="B25" t="str">
-        <v>Embedded RT Development</v>
+        <v>ReefCommon</v>
       </c>
       <c r="C25" t="str">
-        <v>Kando Environmental Services Ltd.</v>
-      </c>
-      <c r="D25" t="str">
-        <v>2021-09-22T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>738</v>
+        <v>554</v>
       </c>
       <c r="B26" t="str">
-        <v>Egg Counter POC</v>
+        <v>ReefATO</v>
       </c>
       <c r="C26" t="str">
-        <v>M.G.H Agricultural Technologies Ltd.</v>
-      </c>
-      <c r="D26" t="str">
-        <v>2025-07-17T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>757</v>
+        <v>555</v>
       </c>
       <c r="B27" t="str">
-        <v>WiFi 7 Integration</v>
+        <v>Billing</v>
       </c>
       <c r="C27" t="str">
-        <v>MaxLinear Israel</v>
-      </c>
-      <c r="D27" t="str">
-        <v>2025-12-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>743</v>
+        <v>557</v>
       </c>
       <c r="B28" t="str">
-        <v>Linux development.</v>
+        <v>ReefSense</v>
       </c>
       <c r="C28" t="str">
-        <v>Maytronics Ltd.</v>
-      </c>
-      <c r="D28" t="str">
-        <v>2025-08-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>454</v>
+        <v>575</v>
       </c>
       <c r="B29" t="str">
-        <v>BIS 2.5</v>
+        <v>Trials Platform CRs</v>
       </c>
       <c r="C29" t="str">
-        <v>Medtronic (Oridion Medical 1987)</v>
-      </c>
-      <c r="D29" t="str">
-        <v>2020-07-22T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="B30" t="str">
-        <v>Linux Enhancement &amp; Benchmarking</v>
+        <v>SHL- HW support</v>
       </c>
       <c r="C30" t="str">
-        <v>Medtronic (Oridion Medical 1987)</v>
-      </c>
-      <c r="D30" t="str">
-        <v>2023-05-24T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="B31" t="str">
-        <v>WIN10 2021 OS Support</v>
+        <v>SmartHeart Call mobile App</v>
       </c>
       <c r="C31" t="str">
-        <v>Medtronic (Oridion Medical 1987)</v>
-      </c>
-      <c r="D31" t="str">
-        <v>2023-11-14T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>726</v>
+        <v>595</v>
       </c>
       <c r="B32" t="str">
-        <v>Embedded Development</v>
+        <v>Smart Valve Joint HW</v>
       </c>
       <c r="C32" t="str">
-        <v>Mellanox</v>
-      </c>
-      <c r="D32" t="str">
-        <v>2025-03-03T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>764</v>
+        <v>604</v>
       </c>
       <c r="B33" t="str">
-        <v>Linux development</v>
+        <v>Power Optimization</v>
       </c>
       <c r="C33" t="str">
-        <v>Mellanox</v>
-      </c>
-      <c r="D33" t="str">
-        <v>2026-01-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>714</v>
+        <v>608</v>
       </c>
       <c r="B34" t="str">
-        <v>Power Sensor App</v>
+        <v>iOS and Android Support</v>
       </c>
       <c r="C34" t="str">
-        <v>Mini-Circuits Israel Ltd.</v>
-      </c>
-      <c r="D34" t="str">
-        <v>2024-11-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="B35" t="str">
-        <v>Power Sensor App - UX and UI Definitions</v>
+        <v>Smart Valve UI/UX Consulting</v>
       </c>
       <c r="C35" t="str">
-        <v>Mini-Circuits Israel Ltd.</v>
-      </c>
-      <c r="D35" t="str">
-        <v>2024-03-20T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>725</v>
+        <v>629</v>
       </c>
       <c r="B36" t="str">
-        <v>Easyplant</v>
+        <v>ReefPower</v>
       </c>
       <c r="C36" t="str">
-        <v>Mixtiles Ltd.</v>
-      </c>
-      <c r="D36" t="str">
-        <v>2025-02-02T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>722</v>
+        <v>630</v>
       </c>
       <c r="B37" t="str">
-        <v>Oasis</v>
+        <v>Linux &amp; ROM Boot Loading Development</v>
       </c>
       <c r="C37" t="str">
-        <v>Mixtiles Ltd.</v>
-      </c>
-      <c r="D37" t="str">
-        <v>2025-01-20T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>754</v>
+        <v>631</v>
       </c>
       <c r="B38" t="str">
-        <v>Gx Board SW</v>
+        <v>Linux Enhancement &amp; Benchmarking</v>
       </c>
       <c r="C38" t="str">
-        <v>Netafim</v>
-      </c>
-      <c r="D38" t="str">
-        <v>2025-11-09T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>759</v>
+        <v>635</v>
       </c>
       <c r="B39" t="str">
-        <v>Hardware Various Tasks</v>
+        <v>Windows Driver Consulting</v>
       </c>
       <c r="C39" t="str">
-        <v>Notal Vision</v>
-      </c>
-      <c r="D39" t="str">
-        <v>2025-12-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>709</v>
+        <v>643</v>
       </c>
       <c r="B40" t="str">
-        <v>Linux R&amp;D Extension</v>
+        <v>Smart Valve Project Management and System</v>
       </c>
       <c r="C40" t="str">
-        <v>OdysightAI Ltd.</v>
-      </c>
-      <c r="D40" t="str">
-        <v>2024-08-26T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>762</v>
+        <v>644</v>
       </c>
       <c r="B41" t="str">
-        <v>RF Project</v>
+        <v>Tracense TS300M SW</v>
       </c>
       <c r="C41" t="str">
-        <v>Orion Advanced Systems</v>
-      </c>
-      <c r="D41" t="str">
-        <v>2025-12-28T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>742</v>
+        <v>658</v>
       </c>
       <c r="B42" t="str">
-        <v>IoT Device SW Support</v>
+        <v>Backend Development</v>
       </c>
       <c r="C42" t="str">
-        <v>OutSense Diagnostics Ltd.</v>
-      </c>
-      <c r="D42" t="str">
-        <v>2025-07-28T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>760</v>
+        <v>660</v>
       </c>
       <c r="B43" t="str">
-        <v>Beams Simulation Development - Cont</v>
+        <v>Linux Various Development Tasks - Addendum 2023</v>
       </c>
       <c r="C43" t="str">
-        <v>Pulsenmore Ltd.</v>
-      </c>
-      <c r="D43" t="str">
-        <v>2025-12-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>724</v>
+        <v>662</v>
       </c>
       <c r="B44" t="str">
-        <v>Ultrasound Simulator</v>
+        <v>RT assistance</v>
       </c>
       <c r="C44" t="str">
-        <v>Pulsenmore Ltd.</v>
-      </c>
-      <c r="D44" t="str">
-        <v>2025-02-16T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B45" t="str">
-        <v>KFcb Update Signing and Installation</v>
+        <v>Tester Tool PC Side</v>
       </c>
       <c r="C45" t="str">
-        <v>Rafael</v>
-      </c>
-      <c r="D45" t="str">
-        <v>2023-12-26T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>763</v>
+        <v>669</v>
       </c>
       <c r="B46" t="str">
-        <v>Firmware</v>
+        <v>Brainsgate</v>
       </c>
       <c r="C46" t="str">
-        <v>Rav Bariach Locks Products LTD.</v>
-      </c>
-      <c r="D46" t="str">
-        <v>2025-12-31T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>751</v>
+        <v>671</v>
       </c>
       <c r="B47" t="str">
-        <v>Padlock HW Review</v>
+        <v>WIN10 2021 OS Support</v>
       </c>
       <c r="C47" t="str">
-        <v>Rav Bariach Locks Products LTD.</v>
-      </c>
-      <c r="D47" t="str">
-        <v>2025-09-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="B48" t="str">
-        <v>PEM1 App Maintenance and Development</v>
+        <v>Smart Valve Backend</v>
       </c>
       <c r="C48" t="str">
-        <v>Rav Bariach Locks Products LTD.</v>
-      </c>
-      <c r="D48" t="str">
-        <v>2024-12-18T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="B49" t="str">
-        <v>PEM1 Software Solution Review</v>
+        <v>KFcb Update Signing and Installation</v>
       </c>
       <c r="C49" t="str">
-        <v>Rav Bariach Locks Products LTD.</v>
-      </c>
-      <c r="D49" t="str">
-        <v>2024-07-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>761</v>
+        <v>679</v>
       </c>
       <c r="B50" t="str">
-        <v>QA</v>
+        <v>G2 Embedded Linux BSP</v>
       </c>
       <c r="C50" t="str">
-        <v>Rav Bariach Locks Products LTD.</v>
-      </c>
-      <c r="D50" t="str">
-        <v>2025-12-25T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>739</v>
+        <v>688</v>
       </c>
       <c r="B51" t="str">
-        <v>Residence</v>
+        <v>ReefCenter</v>
       </c>
       <c r="C51" t="str">
-        <v>Rav Bariach Locks Products LTD.</v>
-      </c>
-      <c r="D51" t="str">
-        <v>2025-07-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>389</v>
+        <v>689</v>
       </c>
       <c r="B52" t="str">
-        <v>Dosing pump</v>
+        <v>ReefCare</v>
       </c>
       <c r="C52" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D52" t="str">
-        <v>2019-10-31T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>542</v>
+        <v>691</v>
       </c>
       <c r="B53" t="str">
-        <v>Porting ReefLight to ESP-IDF</v>
+        <v>Power Sensor App - UX and UI Definitions</v>
       </c>
       <c r="C53" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D53" t="str">
-        <v>2021-10-03T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>554</v>
+        <v>695</v>
       </c>
       <c r="B54" t="str">
-        <v>ReefATO</v>
+        <v>Porting Ubuntu to Android</v>
       </c>
       <c r="C54" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D54" t="str">
-        <v>2022-02-20T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>424</v>
+        <v>697</v>
       </c>
       <c r="B55" t="str">
-        <v>ReefBeat support</v>
+        <v>Smart Valve System QA Plan</v>
       </c>
       <c r="C55" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D55" t="str">
-        <v>2020-04-12T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B56" t="str">
-        <v>ReefCare</v>
+        <v>PCI Host Linux Driver</v>
       </c>
       <c r="C56" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D56" t="str">
-        <v>2024-03-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="B57" t="str">
-        <v>ReefCenter</v>
+        <v>MCU Development</v>
       </c>
       <c r="C57" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D57" t="str">
-        <v>2024-03-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>551</v>
+        <v>702</v>
       </c>
       <c r="B58" t="str">
-        <v>ReefCommon</v>
+        <v>PEM1 Software Solution Review</v>
       </c>
       <c r="C58" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D58" t="str">
-        <v>2022-01-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>509</v>
+        <v>706</v>
       </c>
       <c r="B59" t="str">
-        <v>ReefMat</v>
+        <v>Embedded Software Consulting</v>
       </c>
       <c r="C59" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D59" t="str">
-        <v>2021-04-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="B60" t="str">
-        <v>ReefPower</v>
+        <v>Linux R&amp;D Extension</v>
       </c>
       <c r="C60" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D60" t="str">
-        <v>2023-04-16T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>519</v>
+        <v>711</v>
       </c>
       <c r="B61" t="str">
-        <v>ReefRun</v>
+        <v>IGIN Support</v>
       </c>
       <c r="C61" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D61" t="str">
-        <v>2021-06-20T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>557</v>
+        <v>712</v>
       </c>
       <c r="B62" t="str">
-        <v>ReefSense</v>
+        <v>Smart Valve System QA</v>
       </c>
       <c r="C62" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D62" t="str">
-        <v>2022-03-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>529</v>
+        <v>713</v>
       </c>
       <c r="B63" t="str">
-        <v>ReefWave</v>
+        <v>eSIM Management Platform</v>
       </c>
       <c r="C63" t="str">
-        <v>Red Sea</v>
-      </c>
-      <c r="D63" t="str">
-        <v>2021-09-12T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>635</v>
+        <v>714</v>
       </c>
       <c r="B64" t="str">
-        <v>Windows Driver Consulting</v>
+        <v>Power Sensor App</v>
       </c>
       <c r="C64" t="str">
-        <v>Refael</v>
-      </c>
-      <c r="D64" t="str">
-        <v>2023-05-22T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="B65" t="str">
-        <v>Python Development</v>
+        <v>PEM1 App Maintenance and Development</v>
       </c>
       <c r="C65" t="str">
-        <v>Scopio Lab</v>
-      </c>
-      <c r="D65" t="str">
-        <v>2025-09-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="B66" t="str">
-        <v>Blood pressure app UIUX</v>
+        <v>Smart Valve support</v>
       </c>
       <c r="C66" t="str">
-        <v>SHL Telemedicine International Ltd.</v>
-      </c>
-      <c r="D66" t="str">
-        <v>2025-05-07T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>537</v>
+        <v>722</v>
       </c>
       <c r="B67" t="str">
-        <v>mobile</v>
+        <v>Oasis</v>
       </c>
       <c r="C67" t="str">
-        <v>SHL Telemedicine International Ltd.</v>
-      </c>
-      <c r="D67" t="str">
-        <v>2021-09-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>592</v>
+        <v>724</v>
       </c>
       <c r="B68" t="str">
-        <v>SHL- HW support</v>
+        <v>Ultrasound Simulator</v>
       </c>
       <c r="C68" t="str">
-        <v>SHL Telemedicine International Ltd.</v>
-      </c>
-      <c r="D68" t="str">
-        <v>2022-09-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>593</v>
+        <v>725</v>
       </c>
       <c r="B69" t="str">
-        <v>SmartHeart Call mobile App</v>
+        <v>Easyplant</v>
       </c>
       <c r="C69" t="str">
-        <v>SHL Telemedicine International Ltd.</v>
-      </c>
-      <c r="D69" t="str">
-        <v>2022-09-11T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B70" t="str">
-        <v>Android</v>
+        <v>Embedded Development</v>
       </c>
       <c r="C70" t="str">
-        <v>Sightec (Israel) Ltd.</v>
-      </c>
-      <c r="D70" t="str">
-        <v>2025-06-04T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="B71" t="str">
-        <v>Linux porting</v>
+        <v>Various Development Tasks</v>
       </c>
       <c r="C71" t="str">
-        <v>Sightec (Israel) Ltd.</v>
-      </c>
-      <c r="D71" t="str">
-        <v>2025-11-09T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="B72" t="str">
-        <v>Porting Ubuntu to Android</v>
+        <v>identifying a missing product  POC</v>
       </c>
       <c r="C72" t="str">
-        <v>Sightec (Israel) Ltd.</v>
-      </c>
-      <c r="D72" t="str">
-        <v>2024-05-16T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>608</v>
+        <v>735</v>
       </c>
       <c r="B73" t="str">
-        <v>iOS and Android Support</v>
+        <v>Blood pressure app UIUX</v>
       </c>
       <c r="C73" t="str">
-        <v>Somatix Ltd.</v>
-      </c>
-      <c r="D73" t="str">
-        <v>2022-10-30T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>604</v>
+        <v>736</v>
       </c>
       <c r="B74" t="str">
-        <v>Power Optimization</v>
+        <v>Android</v>
       </c>
       <c r="C74" t="str">
-        <v>Somatix Ltd.</v>
-      </c>
-      <c r="D74" t="str">
-        <v>2022-10-23T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>630</v>
+        <v>738</v>
       </c>
       <c r="B75" t="str">
-        <v>Linux &amp; ROM Boot Loading Development</v>
+        <v>Egg Counter POC</v>
       </c>
       <c r="C75" t="str">
-        <v>Speedata Ltd</v>
-      </c>
-      <c r="D75" t="str">
-        <v>2023-05-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>701</v>
+        <v>739</v>
       </c>
       <c r="B76" t="str">
-        <v>MCU Development</v>
+        <v>Residence</v>
       </c>
       <c r="C76" t="str">
-        <v>Speedata Ltd</v>
-      </c>
-      <c r="D76" t="str">
-        <v>2024-07-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>555</v>
+        <v>740</v>
       </c>
       <c r="B77" t="str">
-        <v>Billing</v>
+        <v>EM IoT Module</v>
       </c>
       <c r="C77" t="str">
-        <v>Taboola</v>
-      </c>
-      <c r="D77" t="str">
-        <v>2022-02-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>518</v>
+        <v>741</v>
       </c>
       <c r="B78" t="str">
-        <v>ליווי ילדים</v>
+        <v>Mobile Team Leader</v>
       </c>
       <c r="C78" t="str">
-        <v>TandemG</v>
-      </c>
-      <c r="D78" t="str">
-        <v>2021-06-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B79" t="str">
-        <v>AI study</v>
+        <v>IoT Device SW Support</v>
       </c>
       <c r="C79" t="str">
-        <v>TandemG</v>
-      </c>
-      <c r="D79" t="str">
-        <v>2025-11-19T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>162</v>
+        <v>743</v>
       </c>
       <c r="B80" t="str">
-        <v>ERP</v>
+        <v>Linux development.</v>
       </c>
       <c r="C80" t="str">
-        <v>TandemG</v>
-      </c>
-      <c r="D80" t="str">
-        <v>2015-02-19T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>6</v>
+        <v>750</v>
       </c>
       <c r="B81" t="str">
-        <v>General</v>
+        <v>Python Development</v>
       </c>
       <c r="C81" t="str">
-        <v>TandemG</v>
-      </c>
-      <c r="D81" t="str">
-        <v>2010-12-02T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>8</v>
+        <v>751</v>
       </c>
       <c r="B82" t="str">
-        <v>Interview</v>
+        <v>Padlock HW Review</v>
       </c>
       <c r="C82" t="str">
-        <v>TandemG</v>
-      </c>
-      <c r="D82" t="str">
-        <v>2011-01-03T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>530</v>
+        <v>752</v>
       </c>
       <c r="B83" t="str">
-        <v>IoT Platform</v>
+        <v>Edge Standalone Development Board</v>
       </c>
       <c r="C83" t="str">
-        <v>TandemG</v>
-      </c>
-      <c r="D83" t="str">
-        <v>2021-09-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>10</v>
+        <v>753</v>
       </c>
       <c r="B84" t="str">
-        <v>Meeting</v>
+        <v>DOTSOIL - Bugs Resolving</v>
       </c>
       <c r="C84" t="str">
-        <v>TandemG</v>
-      </c>
-      <c r="D84" t="str">
-        <v>2011-01-17T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>15</v>
+        <v>754</v>
       </c>
       <c r="B85" t="str">
-        <v>Pre-sale</v>
+        <v>Gx Board SW</v>
       </c>
       <c r="C85" t="str">
-        <v>TandemG</v>
-      </c>
-      <c r="D85" t="str">
-        <v>2011-02-06T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>321</v>
+        <v>755</v>
       </c>
       <c r="B86" t="str">
-        <v>pregnancy</v>
+        <v>Linux porting</v>
       </c>
       <c r="C86" t="str">
-        <v>TandemG</v>
-      </c>
-      <c r="D86" t="str">
-        <v>2018-06-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>662</v>
+        <v>756</v>
       </c>
       <c r="B87" t="str">
-        <v>RT assistance</v>
+        <v>AI study</v>
       </c>
       <c r="C87" t="str">
-        <v>TandemG</v>
-      </c>
-      <c r="D87" t="str">
-        <v>2023-08-29T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>575</v>
+        <v>757</v>
       </c>
       <c r="B88" t="str">
-        <v>Trials Platform CRs</v>
+        <v>WiFi 7 Integration</v>
       </c>
       <c r="C88" t="str">
-        <v>Tingo Medical</v>
-      </c>
-      <c r="D88" t="str">
-        <v>2022-07-14T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>660</v>
+        <v>759</v>
       </c>
       <c r="B89" t="str">
-        <v>Linux Various Development Tasks - Addendum 2023</v>
+        <v>Hardware Various Tasks</v>
       </c>
       <c r="C89" t="str">
-        <v>Tyto</v>
-      </c>
-      <c r="D89" t="str">
-        <v>2023-09-03T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>669</v>
+        <v>760</v>
       </c>
       <c r="B90" t="str">
-        <v>Brainsgate</v>
+        <v>Beams Simulation Development - Cont</v>
       </c>
       <c r="C90" t="str">
-        <v>Udi Kirmayer Ltd.</v>
-      </c>
-      <c r="D90" t="str">
-        <v>2023-10-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>644</v>
+        <v>761</v>
       </c>
       <c r="B91" t="str">
-        <v>Tracense TS300M SW</v>
+        <v>QA</v>
       </c>
       <c r="C91" t="str">
-        <v>Udi Kirmayer Ltd.</v>
-      </c>
-      <c r="D91" t="str">
-        <v>2023-06-22T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>150</v>
+        <v>762</v>
       </c>
       <c r="B92" t="str">
-        <v>SDK</v>
+        <v>RF Project</v>
       </c>
       <c r="C92" t="str">
-        <v>Vayyar</v>
-      </c>
-      <c r="D92" t="str">
-        <v>2014-12-31T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>500</v>
+        <v>763</v>
       </c>
       <c r="B93" t="str">
-        <v>Tools Development</v>
+        <v>Firmware</v>
       </c>
       <c r="C93" t="str">
-        <v>Vayyar</v>
-      </c>
-      <c r="D93" t="str">
-        <v>2021-03-01T00:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>713</v>
+        <v>764</v>
       </c>
       <c r="B94" t="str">
-        <v>eSIM Management Platform</v>
+        <v>Linux development</v>
       </c>
       <c r="C94" t="str">
-        <v>webbing - Telroaming Advanced Communications Solutions Ltd.</v>
-      </c>
-      <c r="D94" t="str">
-        <v>2024-11-07T00:00:00</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E94"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C94"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -404,7 +404,7 @@
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -415,7 +415,7 @@
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>ClientID</v>
+        <v>Client</v>
       </c>
     </row>
     <row r="2">
